--- a/KẾ TOÁN - THÁI HẰNG/KHO/Tháng 7_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/Tháng 7_2020.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +19,596 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Độc lập – Tự do – Hạnh phúc</t>
+  </si>
+  <si>
+    <t>SỔ THEO DÕI KHO NHẬP XUẤT TỒN THÁNG 6</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Ngày tháng</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>1CX45</t>
+  </si>
+  <si>
+    <t>1CX90</t>
+  </si>
+  <si>
+    <t>2CX45</t>
+  </si>
+  <si>
+    <t>2CX90</t>
+  </si>
+  <si>
+    <t>3CX45</t>
+  </si>
+  <si>
+    <t>3CX90</t>
+  </si>
+  <si>
+    <t>GCX45</t>
+  </si>
+  <si>
+    <t>GCX90</t>
+  </si>
+  <si>
+    <t>BCX45</t>
+  </si>
+  <si>
+    <t>BCX90</t>
+  </si>
+  <si>
+    <t>GC90</t>
+  </si>
+  <si>
+    <t>TĐ90</t>
+  </si>
+  <si>
+    <t>SN45</t>
+  </si>
+  <si>
+    <t>SOY</t>
+  </si>
+  <si>
+    <t>Tổng xuất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng nhập </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Cuối tháng 5</t>
+  </si>
+  <si>
+    <t>Tồn đầu kỳ</t>
+  </si>
+  <si>
+    <t>Chị Phương Yên Châu</t>
+  </si>
+  <si>
+    <t>Nhập hàng</t>
+  </si>
+  <si>
+    <t>Chị Phú DVH</t>
+  </si>
+  <si>
+    <t>Tình trạng xuất nhập theo HĐ</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Thùng</t>
+  </si>
+  <si>
+    <t>tình trạng xuất nhập (cả hàng tồn đầu kỳ)</t>
+  </si>
+  <si>
+    <t>tồn kho</t>
+  </si>
+  <si>
+    <t>Số lượng nhập tháng 7</t>
+  </si>
+  <si>
+    <t>Số lượng xuất tháng 7</t>
+  </si>
+  <si>
+    <t>Tồn trên hóa đơn hết tháng 7</t>
+  </si>
+  <si>
+    <t>Chị Tâm (Quý)</t>
+  </si>
+  <si>
+    <t>Khách lẻ QT</t>
+  </si>
+  <si>
+    <t>Chị Tâm Nanomilk</t>
+  </si>
+  <si>
+    <t>Khách lẻ Anh Lâm</t>
+  </si>
+  <si>
+    <t>Chị Tâm</t>
+  </si>
+  <si>
+    <t>Anh Sơn Kinh doanh</t>
+  </si>
+  <si>
+    <t>Chị Hồng Sơn La</t>
+  </si>
+  <si>
+    <t>Chị Taam</t>
+  </si>
+  <si>
+    <t>Chị Hồng Nanomilk</t>
+  </si>
+  <si>
+    <t>ĐL Thủy Vy tuyên quang</t>
+  </si>
+  <si>
+    <t>Khách lẻ quỳnh trang</t>
+  </si>
+  <si>
+    <t>Chị Huệ điện biên</t>
+  </si>
+  <si>
+    <t>ĐL Hải Vui thanh hóa</t>
+  </si>
+  <si>
+    <t>Chị Thủy thái thịnh</t>
+  </si>
+  <si>
+    <t>Chị oanh việt trì</t>
+  </si>
+  <si>
+    <t>Chị nhung tuyên quang</t>
+  </si>
+  <si>
+    <t>Chị Thảo phú thọ</t>
+  </si>
+  <si>
+    <t>Chị Hà phú thọ</t>
+  </si>
+  <si>
+    <t>Anh Minh Gia lâm</t>
+  </si>
+  <si>
+    <t>Hàng mẫu anh lâm</t>
+  </si>
+  <si>
+    <t>Anh giáp cao bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Tâm </t>
+  </si>
+  <si>
+    <t>Tặng Vinh MC</t>
+  </si>
+  <si>
+    <t>ĐL Duy nhất</t>
+  </si>
+  <si>
+    <t>Hằng Nanomilk</t>
+  </si>
+  <si>
+    <t>Chị Tuyết SG</t>
+  </si>
+  <si>
+    <t>Đl Bông bống</t>
+  </si>
+  <si>
+    <t>Đl duy nhất</t>
+  </si>
+  <si>
+    <t>ĐL Hà Linh</t>
+  </si>
+  <si>
+    <t>ĐL Thanh Hòa</t>
+  </si>
+  <si>
+    <t>ĐL Nhất Nhất</t>
+  </si>
+  <si>
+    <t>Chi Hồng Sơn La</t>
+  </si>
+  <si>
+    <t>Thanh Hà trả hàng</t>
+  </si>
+  <si>
+    <t>Thủy Vy trả hàng</t>
+  </si>
+  <si>
+    <t>ĐL Hải Vui trả hàng</t>
+  </si>
+  <si>
+    <t>Đl Bông bống trả hàng</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +616,136 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,15 +753,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1368,4009 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH66"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH66" sqref="AH66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" style="7" customWidth="1"/>
+    <col min="14" max="15" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.28515625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.28515625" style="7" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="7" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="24"/>
+      <c r="V6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="15"/>
+      <c r="X6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH6" s="15"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC7" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="15"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="37">
+        <v>10</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37">
+        <v>307</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37">
+        <v>67</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37">
+        <v>-69</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37">
+        <v>28</v>
+      </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37">
+        <v>-99</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37">
+        <v>97</v>
+      </c>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37">
+        <v>61</v>
+      </c>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37">
+        <v>-14</v>
+      </c>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37">
+        <v>219</v>
+      </c>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37">
+        <v>-20</v>
+      </c>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37">
+        <v>-150</v>
+      </c>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37">
+        <v>192</v>
+      </c>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37">
+        <f>E8+G8+I8+K8+M8+O8+Q8+S8+U8+W8+Y8+AA8+AC8+AE8</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="37">
+        <f>D8+F8+H8+J8+L8+N8+P8+R8+T8+V8+X8+Z8+AB8+AD8</f>
+        <v>639</v>
+      </c>
+      <c r="AH8" s="39"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41">
+        <v>44013</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42">
+        <v>2</v>
+      </c>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="39">
+        <f t="shared" ref="AF9:AF61" si="0">E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
+        <v>2</v>
+      </c>
+      <c r="AG9" s="39">
+        <f t="shared" ref="AG9:AG61" si="1">D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="42"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41">
+        <v>44013</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG10" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="42"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41">
+        <v>44013</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43">
+        <v>1</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42">
+        <v>1</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG11" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="42"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41">
+        <v>44015</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42">
+        <v>1</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42">
+        <v>1</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="42"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41">
+        <v>44015</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG13" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="42"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41">
+        <v>44016</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42">
+        <v>1</v>
+      </c>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="42"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41">
+        <v>44018</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG15" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="42"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41">
+        <v>44018</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42">
+        <v>2</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="42"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41">
+        <v>44019</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42">
+        <v>1</v>
+      </c>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42">
+        <v>1</v>
+      </c>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG17" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="42"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41">
+        <v>44020</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42">
+        <v>12</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42">
+        <v>12</v>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42">
+        <v>12</v>
+      </c>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42">
+        <v>12</v>
+      </c>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42">
+        <v>12</v>
+      </c>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="39">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="AG18" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="42"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41">
+        <v>44020</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42">
+        <v>1</v>
+      </c>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG19" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="42"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41">
+        <v>44020</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43">
+        <v>1</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="42"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41">
+        <v>44020</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42">
+        <v>36</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42">
+        <v>24</v>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42">
+        <v>12</v>
+      </c>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="39">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="AG21" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="42"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41">
+        <v>44020</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="43">
+        <v>31</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="42">
+        <v>12</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="42">
+        <v>12</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="42">
+        <v>12</v>
+      </c>
+      <c r="O22" s="42"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="42">
+        <v>12</v>
+      </c>
+      <c r="S22" s="42"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="42">
+        <v>12</v>
+      </c>
+      <c r="W22" s="42"/>
+      <c r="X22" s="48">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="42">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="39">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="AH22" s="42"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41">
+        <v>44020</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="44">
+        <v>8</v>
+      </c>
+      <c r="I23" s="44"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="45">
+        <v>8</v>
+      </c>
+      <c r="M23" s="45"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="46">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="39">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AH23" s="42"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41">
+        <v>44021</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43">
+        <v>47</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44">
+        <v>13</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45">
+        <v>21</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46">
+        <v>8</v>
+      </c>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47">
+        <v>7</v>
+      </c>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="39">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="AG24" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="42"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41">
+        <v>44021</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42">
+        <v>1</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG25" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="42"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41">
+        <v>44021</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="42">
+        <v>12</v>
+      </c>
+      <c r="S26" s="42"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="42">
+        <v>12</v>
+      </c>
+      <c r="W26" s="42"/>
+      <c r="X26" s="48">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="42">
+        <v>12</v>
+      </c>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="39">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="AH26" s="42"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41">
+        <v>44022</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42">
+        <v>4</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AG27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="42"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41">
+        <v>44023</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG28" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="42"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="41">
+        <v>44023</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42">
+        <v>1</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42">
+        <v>1</v>
+      </c>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42">
+        <v>1</v>
+      </c>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42">
+        <v>1</v>
+      </c>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42">
+        <v>1</v>
+      </c>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AG29" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="42"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41">
+        <v>44024</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49">
+        <v>24</v>
+      </c>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="39">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG30" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="42"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41">
+        <v>44025</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42">
+        <v>3</v>
+      </c>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG31" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="42"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41">
+        <v>44026</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42">
+        <v>12</v>
+      </c>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="39">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG32" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="42"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41">
+        <v>44026</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42">
+        <v>1</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42">
+        <v>1</v>
+      </c>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42">
+        <v>1</v>
+      </c>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42">
+        <v>1</v>
+      </c>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42">
+        <v>1</v>
+      </c>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AG33" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="42"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41">
+        <v>44027</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42">
+        <v>10</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42">
+        <v>7</v>
+      </c>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42">
+        <v>7</v>
+      </c>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42">
+        <v>7</v>
+      </c>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42">
+        <v>7</v>
+      </c>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42">
+        <v>7</v>
+      </c>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49">
+        <v>7</v>
+      </c>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="39">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AG34" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="42"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="41">
+        <v>44028</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="42">
+        <v>9</v>
+      </c>
+      <c r="O35" s="42"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="39">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AH35" s="42"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41">
+        <v>44028</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG36" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="42"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41">
+        <v>44028</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG37" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="42"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41">
+        <v>44029</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="42">
+        <v>1</v>
+      </c>
+      <c r="G38" s="42"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH38" s="42"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41">
+        <v>44029</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42">
+        <v>1</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42">
+        <v>1</v>
+      </c>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="42"/>
+      <c r="AF39" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG39" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="42"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41">
+        <v>44029</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
+        <v>24</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42">
+        <v>12</v>
+      </c>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42">
+        <v>12</v>
+      </c>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="39">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG40" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="42"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41">
+        <v>44029</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42">
+        <v>8</v>
+      </c>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42">
+        <v>2</v>
+      </c>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42">
+        <v>6</v>
+      </c>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="39">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AG41" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="42"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="41">
+        <v>44029</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42">
+        <v>6</v>
+      </c>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG42" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="42"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41">
+        <v>44031</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="42">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="K43" s="42"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="42">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="O43" s="42"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="42">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="S43" s="42"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="42">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="W43" s="42"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="42">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="49">
+        <f>15*24</f>
+        <v>360</v>
+      </c>
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="39">
+        <f t="shared" si="1"/>
+        <v>1380</v>
+      </c>
+      <c r="AH43" s="42"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41">
+        <v>44031</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="48">
+        <v>60</v>
+      </c>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="49"/>
+      <c r="AD44" s="42"/>
+      <c r="AE44" s="42"/>
+      <c r="AF44" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="39">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AH44" s="42"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41">
+        <v>44032</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="48">
+        <v>24</v>
+      </c>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="49"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="39">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AH45" s="42"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="41">
+        <v>44032</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
+        <v>300</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42">
+        <v>180</v>
+      </c>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42">
+        <v>120</v>
+      </c>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42">
+        <v>240</v>
+      </c>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42">
+        <v>60</v>
+      </c>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="48">
+        <v>84</v>
+      </c>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42">
+        <v>240</v>
+      </c>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49">
+        <v>240</v>
+      </c>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="42"/>
+      <c r="AF46" s="39">
+        <f t="shared" si="0"/>
+        <v>1464</v>
+      </c>
+      <c r="AG46" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="42"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="41">
+        <v>44032</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42">
+        <v>12</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42">
+        <v>12</v>
+      </c>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42">
+        <v>12</v>
+      </c>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42">
+        <v>12</v>
+      </c>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48">
+        <v>12</v>
+      </c>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42">
+        <v>12</v>
+      </c>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49">
+        <v>10</v>
+      </c>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="39">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="AG47" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="42"/>
+    </row>
+    <row r="48" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="41">
+        <v>44032</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
+        <v>24</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42">
+        <v>12</v>
+      </c>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42">
+        <v>12</v>
+      </c>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42">
+        <v>12</v>
+      </c>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="42"/>
+      <c r="AF48" s="39">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AG48" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="42"/>
+    </row>
+    <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="41">
+        <v>44032</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42">
+        <v>24</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42">
+        <v>12</v>
+      </c>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="49"/>
+      <c r="AC49" s="49"/>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AG49" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="42"/>
+    </row>
+    <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="41">
+        <v>44034</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="43">
+        <v>5</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="42">
+        <v>12</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="49"/>
+      <c r="AC50" s="49"/>
+      <c r="AD50" s="42"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="39">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AH50" s="42"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="41">
+        <v>44034</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42">
+        <v>7</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42">
+        <v>5</v>
+      </c>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="49"/>
+      <c r="AC51" s="49"/>
+      <c r="AD51" s="42"/>
+      <c r="AE51" s="42"/>
+      <c r="AF51" s="39">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG51" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="42"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="41">
+        <v>44036</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="42">
+        <v>12</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="49"/>
+      <c r="AC52" s="49"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="39">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AH52" s="42"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="41">
+        <v>44036</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42">
+        <v>24</v>
+      </c>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42">
+        <v>12</v>
+      </c>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42">
+        <v>12</v>
+      </c>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="49"/>
+      <c r="AC53" s="49"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="39">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG53" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="42"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41">
+        <v>44036</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="42">
+        <v>12</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="39">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AH54" s="42"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="41">
+        <v>44040</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42">
+        <v>24</v>
+      </c>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42">
+        <v>36</v>
+      </c>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42">
+        <v>24</v>
+      </c>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="48">
+        <v>48</v>
+      </c>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42">
+        <v>36</v>
+      </c>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="49">
+        <v>48</v>
+      </c>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="39">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="AG55" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="42"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="41">
+        <v>44041</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="43">
+        <f>10*24</f>
+        <v>240</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="42">
+        <f>30*12</f>
+        <v>360</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="42">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="K56" s="42"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="42">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="O56" s="42"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="42">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="S56" s="42"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="42">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="W56" s="42"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="42">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="49"/>
+      <c r="AC56" s="49"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="42"/>
+      <c r="AF56" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="39">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="AH56" s="42"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="41">
+        <v>44041</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42">
+        <v>24</v>
+      </c>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42">
+        <v>24</v>
+      </c>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="42"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="49"/>
+      <c r="AD57" s="42"/>
+      <c r="AE57" s="42"/>
+      <c r="AF57" s="39">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG57" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="42"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="41">
+        <v>44041</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43">
+        <v>24</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42">
+        <v>24</v>
+      </c>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="48"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="49"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="39">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG58" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="42"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="41">
+        <v>44042</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="48"/>
+      <c r="Y59" s="48">
+        <v>2</v>
+      </c>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="42"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="49"/>
+      <c r="AD59" s="42"/>
+      <c r="AE59" s="42"/>
+      <c r="AF59" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG59" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH59" s="42"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="41">
+        <v>44043</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42">
+        <v>24</v>
+      </c>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42">
+        <v>12</v>
+      </c>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42">
+        <v>12</v>
+      </c>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="48"/>
+      <c r="Y60" s="48">
+        <v>12</v>
+      </c>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="42"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="49"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="42"/>
+      <c r="AF60" s="39">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AG60" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="42"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41">
+        <v>44043</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42">
+        <v>6</v>
+      </c>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42">
+        <v>4</v>
+      </c>
+      <c r="T61" s="47"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="48"/>
+      <c r="Y61" s="48"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="42"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="42"/>
+      <c r="AE61" s="42"/>
+      <c r="AF61" s="39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AG61" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="42"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62" s="50"/>
+      <c r="B62" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53">
+        <f>SUM(D9:D61)</f>
+        <v>276</v>
+      </c>
+      <c r="E62" s="53">
+        <f>SUM(E9:E61)</f>
+        <v>74</v>
+      </c>
+      <c r="F62" s="53">
+        <f>SUM(F9:F61)</f>
+        <v>409</v>
+      </c>
+      <c r="G62" s="53">
+        <f>SUM(G9:G61)</f>
+        <v>539</v>
+      </c>
+      <c r="H62" s="53">
+        <f>SUM(H9:H61)</f>
+        <v>8</v>
+      </c>
+      <c r="I62" s="53">
+        <f>SUM(I9:I61)</f>
+        <v>13</v>
+      </c>
+      <c r="J62" s="53">
+        <f>SUM(J9:J61)</f>
+        <v>492</v>
+      </c>
+      <c r="K62" s="53">
+        <f>SUM(K9:K61)</f>
+        <v>319</v>
+      </c>
+      <c r="L62" s="53">
+        <f>SUM(L9:L61)</f>
+        <v>8</v>
+      </c>
+      <c r="M62" s="53">
+        <f>SUM(M9:M61)</f>
+        <v>21</v>
+      </c>
+      <c r="N62" s="53">
+        <f>SUM(N9:N61)</f>
+        <v>321</v>
+      </c>
+      <c r="O62" s="53">
+        <f>SUM(O9:O61)</f>
+        <v>231</v>
+      </c>
+      <c r="P62" s="53">
+        <f>SUM(P9:P61)</f>
+        <v>8</v>
+      </c>
+      <c r="Q62" s="53">
+        <f>SUM(Q9:Q61)</f>
+        <v>8</v>
+      </c>
+      <c r="R62" s="53">
+        <f>SUM(R9:R61)</f>
+        <v>384</v>
+      </c>
+      <c r="S62" s="53">
+        <f>SUM(S9:S61)</f>
+        <v>376</v>
+      </c>
+      <c r="T62" s="53">
+        <f>SUM(T9:T61)</f>
+        <v>0</v>
+      </c>
+      <c r="U62" s="53">
+        <f>SUM(U9:U61)</f>
+        <v>7</v>
+      </c>
+      <c r="V62" s="53">
+        <f>SUM(V9:V61)</f>
+        <v>144</v>
+      </c>
+      <c r="W62" s="53">
+        <f>SUM(W9:W61)</f>
+        <v>130</v>
+      </c>
+      <c r="X62" s="53">
+        <f>SUM(X9:X61)</f>
+        <v>104</v>
+      </c>
+      <c r="Y62" s="53">
+        <f>SUM(Y9:Y61)</f>
+        <v>186</v>
+      </c>
+      <c r="Z62" s="53">
+        <f>SUM(Z9:Z61)</f>
+        <v>384</v>
+      </c>
+      <c r="AA62" s="53">
+        <f>SUM(AA9:AA61)</f>
+        <v>329</v>
+      </c>
+      <c r="AB62" s="53">
+        <f>SUM(AB9:AB61)</f>
+        <v>360</v>
+      </c>
+      <c r="AC62" s="53">
+        <f>SUM(AC9:AC61)</f>
+        <v>330</v>
+      </c>
+      <c r="AD62" s="53">
+        <f>SUM(AD9:AD61)</f>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="53">
+        <f>SUM(AE9:AE61)</f>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="54">
+        <f>E62+G62+I62+K62+M62+O62+Q62+S62+U62+W62+Y62+AA62+AC62+AE62</f>
+        <v>2563</v>
+      </c>
+      <c r="AG62" s="54">
+        <f>D62+F62+H62+J62+L62+N62+P62+R62+T62+V62+X62+Z62+AB62+AD62</f>
+        <v>2898</v>
+      </c>
+      <c r="AH62" s="55"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" s="50"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="58">
+        <f>SUM(D8:D61)-SUM(E8:E61)</f>
+        <v>212</v>
+      </c>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58">
+        <f>SUM(F8:F61)-SUM(G8:G61)</f>
+        <v>177</v>
+      </c>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58">
+        <f>SUM(H8:H61)-SUM(I8:I61)</f>
+        <v>62</v>
+      </c>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58">
+        <f>SUM(J8:J61)-SUM(K8:K61)</f>
+        <v>104</v>
+      </c>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58">
+        <f>SUM(L8:L61)-SUM(M8:M61)</f>
+        <v>15</v>
+      </c>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58">
+        <f>SUM(N8:N61)-SUM(O8:O61)</f>
+        <v>-9</v>
+      </c>
+      <c r="O63" s="58"/>
+      <c r="P63" s="58">
+        <f>SUM(P8:P61)-SUM(Q8:Q61)</f>
+        <v>10</v>
+      </c>
+      <c r="Q63" s="58"/>
+      <c r="R63" s="58">
+        <f>SUM(R8:R61)-SUM(S8:S61)</f>
+        <v>105</v>
+      </c>
+      <c r="S63" s="58"/>
+      <c r="T63" s="58">
+        <f>SUM(T8:T61)-SUM(U8:U61)</f>
+        <v>54</v>
+      </c>
+      <c r="U63" s="58"/>
+      <c r="V63" s="58">
+        <f>SUM(V8:V61)-SUM(W8:W61)</f>
+        <v>0</v>
+      </c>
+      <c r="W63" s="58"/>
+      <c r="X63" s="58">
+        <f>SUM(X8:X61)-SUM(Y8:Y61)</f>
+        <v>137</v>
+      </c>
+      <c r="Y63" s="58"/>
+      <c r="Z63" s="58">
+        <f>SUM(Z8:Z61)-SUM(AA8:AA61)</f>
+        <v>35</v>
+      </c>
+      <c r="AA63" s="58"/>
+      <c r="AB63" s="58">
+        <f>SUM(AB8:AB61)-SUM(AC8:AC61)</f>
+        <v>-120</v>
+      </c>
+      <c r="AC63" s="58"/>
+      <c r="AD63" s="58">
+        <f>SUM(AD8:AD61)-SUM(AE8:AE61)</f>
+        <v>192</v>
+      </c>
+      <c r="AE63" s="58"/>
+      <c r="AH63" s="55"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A64" s="50"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="59">
+        <f>D63/24</f>
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59">
+        <f>F63/12</f>
+        <v>14.75</v>
+      </c>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59">
+        <f>H63/24</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59">
+        <f>J63/12</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59">
+        <f>L63/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59">
+        <f>N63/12</f>
+        <v>-0.75</v>
+      </c>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59">
+        <f>P63/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59">
+        <f>R63/12</f>
+        <v>8.75</v>
+      </c>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59">
+        <f>T63/24</f>
+        <v>2.25</v>
+      </c>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59">
+        <f>V63/12</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59">
+        <f>X63/12</f>
+        <v>11.416666666666666</v>
+      </c>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59">
+        <f>Z63/12</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="59">
+        <f>AB63/24</f>
+        <v>-5</v>
+      </c>
+      <c r="AC64" s="59"/>
+      <c r="AD64" s="58"/>
+      <c r="AE64" s="58"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="55"/>
+    </row>
+    <row r="65" spans="1:34" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="62"/>
+      <c r="AF65" s="63">
+        <f>SUM(AF8:AF61)</f>
+        <v>2563</v>
+      </c>
+      <c r="AG65" s="63">
+        <f>SUM(AG8:AG61)</f>
+        <v>3537</v>
+      </c>
+      <c r="AH65" s="64"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
+      <c r="AA66" s="61"/>
+      <c r="AB66" s="61"/>
+      <c r="AC66" s="61"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="62"/>
+      <c r="AF66" s="65">
+        <f>AG65-AF65</f>
+        <v>974</v>
+      </c>
+      <c r="AG66" s="66"/>
+      <c r="AH66" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="A65:AE65"/>
+    <mergeCell ref="A66:AE66"/>
+    <mergeCell ref="AF66:AG66"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="AB64:AC64"/>
+    <mergeCell ref="AD64:AE64"/>
+    <mergeCell ref="AB63:AC63"/>
+    <mergeCell ref="AD63:AE63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:AG5"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E6:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="E6" s="68"/>
+      <c r="F6" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="70">
+        <f>Sheet1!D8</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="70">
+        <f>Sheet1!D62</f>
+        <v>276</v>
+      </c>
+      <c r="H7" s="70">
+        <f>Sheet1!E62</f>
+        <v>74</v>
+      </c>
+      <c r="I7" s="70">
+        <f>F7+G7-H7</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="70">
+        <f>Sheet1!F8</f>
+        <v>307</v>
+      </c>
+      <c r="G8" s="70">
+        <f>Sheet1!F62</f>
+        <v>409</v>
+      </c>
+      <c r="H8" s="70">
+        <f>Sheet1!G62</f>
+        <v>539</v>
+      </c>
+      <c r="I8" s="70">
+        <f t="shared" ref="I8:I20" si="0">F8+G8-H8</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="70">
+        <f>Sheet1!H8</f>
+        <v>67</v>
+      </c>
+      <c r="G9" s="70">
+        <f>Sheet1!H62</f>
+        <v>8</v>
+      </c>
+      <c r="H9" s="70">
+        <f>Sheet1!I62</f>
+        <v>13</v>
+      </c>
+      <c r="I9" s="70">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="70">
+        <f>Sheet1!J8</f>
+        <v>-69</v>
+      </c>
+      <c r="G10" s="70">
+        <f>Sheet1!J62</f>
+        <v>492</v>
+      </c>
+      <c r="H10" s="70">
+        <f>Sheet1!K62</f>
+        <v>319</v>
+      </c>
+      <c r="I10" s="70">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="70">
+        <f>Sheet1!L8</f>
+        <v>28</v>
+      </c>
+      <c r="G11" s="70">
+        <f>Sheet1!L62</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="70">
+        <f>Sheet1!M62</f>
+        <v>21</v>
+      </c>
+      <c r="I11" s="70">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="70">
+        <f>Sheet1!N8</f>
+        <v>-99</v>
+      </c>
+      <c r="G12" s="70">
+        <f>Sheet1!N62</f>
+        <v>321</v>
+      </c>
+      <c r="H12" s="70">
+        <f>Sheet1!O62</f>
+        <v>231</v>
+      </c>
+      <c r="I12" s="70">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="70">
+        <f>Sheet1!P8</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="70">
+        <f>Sheet1!P62</f>
+        <v>8</v>
+      </c>
+      <c r="H13" s="70">
+        <f>Sheet1!Q62</f>
+        <v>8</v>
+      </c>
+      <c r="I13" s="70">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="70">
+        <f>Sheet1!R8</f>
+        <v>97</v>
+      </c>
+      <c r="G14" s="70">
+        <f>Sheet1!R62</f>
+        <v>384</v>
+      </c>
+      <c r="H14" s="70">
+        <f>Sheet1!S62</f>
+        <v>376</v>
+      </c>
+      <c r="I14" s="70">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="70">
+        <f>Sheet1!T8</f>
+        <v>61</v>
+      </c>
+      <c r="G15" s="70">
+        <f>Sheet1!T62</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="70">
+        <f>Sheet1!U62</f>
+        <v>7</v>
+      </c>
+      <c r="I15" s="70">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="70">
+        <f>Sheet1!V8</f>
+        <v>-14</v>
+      </c>
+      <c r="G16" s="70">
+        <f>Sheet1!V62</f>
+        <v>144</v>
+      </c>
+      <c r="H16" s="70">
+        <f>Sheet1!W62</f>
+        <v>130</v>
+      </c>
+      <c r="I16" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="70">
+        <f>Sheet1!AB8</f>
+        <v>-150</v>
+      </c>
+      <c r="G17" s="70">
+        <f>Sheet1!AB62</f>
+        <v>360</v>
+      </c>
+      <c r="H17" s="70">
+        <f>Sheet1!AC62</f>
+        <v>330</v>
+      </c>
+      <c r="I17" s="70">
+        <f t="shared" si="0"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="70">
+        <f>Sheet1!X8</f>
+        <v>219</v>
+      </c>
+      <c r="G18" s="70">
+        <f>Sheet1!X62</f>
+        <v>104</v>
+      </c>
+      <c r="H18" s="70">
+        <f>Sheet1!Y62</f>
+        <v>186</v>
+      </c>
+      <c r="I18" s="70">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="70">
+        <f>Sheet1!Z8</f>
+        <v>-20</v>
+      </c>
+      <c r="G19" s="70">
+        <f>Sheet1!Z62</f>
+        <v>384</v>
+      </c>
+      <c r="H19" s="70">
+        <f>Sheet1!AA62</f>
+        <v>329</v>
+      </c>
+      <c r="I19" s="70">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="70">
+        <f>Sheet1!AD8</f>
+        <v>192</v>
+      </c>
+      <c r="G20" s="70">
+        <f>Sheet1!AD62</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="70">
+        <f>Sheet1!AE62</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="70">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="71"/>
+      <c r="F21" s="72">
+        <f>SUM(F7:F20)</f>
+        <v>639</v>
+      </c>
+      <c r="G21" s="72">
+        <f>SUM(G7:G20)</f>
+        <v>2898</v>
+      </c>
+      <c r="H21" s="72">
+        <f>SUM(H7:H20)</f>
+        <v>2563</v>
+      </c>
+      <c r="I21" s="72">
+        <f>SUM(I7:I20)</f>
+        <v>974</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>